--- a/misc/selected_variables.xlsx
+++ b/misc/selected_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yemen.ERICA_LIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Research projects/Current/Nonprofit accountability/motherly-dolphin/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409D230-BA96-45C2-895E-5649832CB815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7842E17-692A-0D4B-BFE2-FCDC3871698A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F1A55EB-E5AF-4ACE-A3AE-54BB3AFE5DC2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{8F1A55EB-E5AF-4ACE-A3AE-54BB3AFE5DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="variable_names" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t>EIN</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>vname</t>
+  </si>
+  <si>
+    <t>taxpd</t>
   </si>
 </sst>
 </file>
@@ -657,20 +660,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4B919F-F74D-4878-B883-D6B74104A16E}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -681,7 +684,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -692,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -703,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -714,7 +717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -725,7 +728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -736,7 +739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -747,7 +750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -758,7 +761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -769,7 +772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -780,7 +783,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -791,7 +794,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -802,7 +805,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -813,7 +816,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -824,7 +827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -835,7 +838,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -846,7 +849,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -857,7 +860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -868,7 +871,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -879,7 +882,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -890,7 +893,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -901,7 +904,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -912,7 +915,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -923,7 +926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -934,7 +937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -945,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -953,10 +956,10 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -967,7 +970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -978,7 +981,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -989,7 +992,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -1130,14 +1133,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
